--- a/August2020/August Summary.xlsx
+++ b/August2020/August Summary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wangb2\Documents\Project\Network-Connectivity-Analysis\August2020\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{274D9DAC-0B5F-4EF9-90A3-D1C1397F26B6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FDD45EC-244F-493F-9FBD-25F8F8BC9160}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15525" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,6 +16,7 @@
     <sheet name="Aug_10_2020" sheetId="1" r:id="rId1"/>
     <sheet name="Progress" sheetId="3" r:id="rId2"/>
     <sheet name="Questions" sheetId="2" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>Purpose</t>
   </si>
@@ -66,6 +67,66 @@
   </si>
   <si>
     <t>Is it SCE or OMS/MSP team's responsibility to handle the transformation of the data into the GE csv format? It should be on both of their sides.</t>
+  </si>
+  <si>
+    <t>Technical Documentation from GE providing more details on the workings of NCA</t>
+  </si>
+  <si>
+    <t>Customer to phase analysis</t>
+  </si>
+  <si>
+    <t>Customer to transformer analysis</t>
+  </si>
+  <si>
+    <t>Performance benchmarks and metrics for data consumption</t>
+  </si>
+  <si>
+    <t>Storage requirements for data. Where is the data stored? How do we load an entire network of data into the system?</t>
+  </si>
+  <si>
+    <t>Timeframe for updating data, is it incremental?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reloading the data, and re-running NCA on a new system or test box, does it require all data to be reloaded and stored on the box? </t>
+  </si>
+  <si>
+    <t>We can provide GE with maybe an A-system of data for 6 months in the csv format, but as far as generating the entire system in the csv format, our concern is the scalability and performance of using this channel due to the resources needed on our side to produce and update the data.</t>
+  </si>
+  <si>
+    <t>We would like to understand what the end-to-end performance might look like for us to use this application first, otherwise if the performance is a problem to the point that it cannot be regularly used it might be a good idea to start working now on building and testing a better channel.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Is NCA building its own internal DB of AMI data? What type of DB is it? </t>
+  </si>
+  <si>
+    <t>details on how nca loads in and stores the data</t>
+  </si>
+  <si>
+    <t xml:space="preserve">detail on the </t>
+  </si>
+  <si>
+    <t>Should column name FeederId and Substation remain consistent? Both named as string or both named as number.</t>
+  </si>
+  <si>
+    <t>i.e. feederid should be number, and substation name should be string.</t>
+  </si>
+  <si>
+    <t>timestamp, are the T and ".000+000" fixed values?</t>
+  </si>
+  <si>
+    <t>is there any need for customer count, priority customer count, and geo coordinates for equipment</t>
+  </si>
+  <si>
+    <t>Neeraj</t>
+  </si>
+  <si>
+    <t>Notes:</t>
+  </si>
+  <si>
+    <t>chris goman</t>
+  </si>
+  <si>
+    <t>jeff brown</t>
   </si>
 </sst>
 </file>
@@ -81,12 +142,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -101,8 +168,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -471,10 +539,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DBA84F8-7B4A-49DB-8F35-79B135E05FE9}">
-  <dimension ref="A2"/>
+  <dimension ref="A2:N29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -482,12 +550,120 @@
     <col min="1" max="2" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B22" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="N22" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B23" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="N23" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B24" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B26" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B28" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8194A9AC-F4D2-47DB-BD02-B6A2F2AA541F}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>